--- a/padam_excel/TS 1.2 Padam Input.xlsx
+++ b/padam_excel/TS 1.2 Padam Input.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="1.2 padam" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="new dt 01.06.2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.2 padam'!$A$1:$M$1692</definedName>
@@ -37533,8 +37533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1578" workbookViewId="0">
-      <selection activeCell="A1690" sqref="A1690"/>
+    <sheetView tabSelected="1" topLeftCell="A1564" workbookViewId="0">
+      <selection activeCell="B1574" sqref="B1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
